--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H2">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I2">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J2">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N2">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O2">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P2">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q2">
-        <v>0.1253852009126667</v>
+        <v>0.009758669685333331</v>
       </c>
       <c r="R2">
-        <v>1.128466808214</v>
+        <v>0.08782802716799998</v>
       </c>
       <c r="S2">
-        <v>0.01218427798699316</v>
+        <v>0.00319960604212365</v>
       </c>
       <c r="T2">
-        <v>0.01279005494937618</v>
+        <v>0.003225327872509463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H3">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I3">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J3">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.324603</v>
       </c>
       <c r="O3">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P3">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q3">
-        <v>0.010831569306</v>
+        <v>0.002920561392</v>
       </c>
       <c r="R3">
-        <v>0.09748412375400001</v>
+        <v>0.02628505252799999</v>
       </c>
       <c r="S3">
-        <v>0.001052555249734853</v>
+        <v>0.0009575737449419641</v>
       </c>
       <c r="T3">
-        <v>0.001104886107796803</v>
+        <v>0.0009652717393591009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H4">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I4">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J4">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N4">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O4">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P4">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q4">
-        <v>0.001571230407333334</v>
+        <v>7.8465744E-05</v>
       </c>
       <c r="R4">
-        <v>0.014141073666</v>
+        <v>0.000470794464</v>
       </c>
       <c r="S4">
-        <v>0.0001526839525336026</v>
+        <v>2.572681284411687E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001602750811231814</v>
+        <v>1.728908818659659E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>18.901559</v>
       </c>
       <c r="I5">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J5">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N5">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O5">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P5">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q5">
-        <v>7.891554195145222</v>
+        <v>2.277885679940222</v>
       </c>
       <c r="R5">
-        <v>71.02398775630699</v>
+        <v>20.500971119462</v>
       </c>
       <c r="S5">
-        <v>0.7668599592550308</v>
+        <v>0.7468576168489016</v>
       </c>
       <c r="T5">
-        <v>0.8049866416227993</v>
+        <v>0.7528616513112785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>18.901559</v>
       </c>
       <c r="I6">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J6">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>0.324603</v>
       </c>
       <c r="O6">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P6">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q6">
         <v>0.6817225284529999</v>
@@ -821,10 +821,10 @@
         <v>6.135502756076999</v>
       </c>
       <c r="S6">
-        <v>0.06624622950879749</v>
+        <v>0.2235185318720545</v>
       </c>
       <c r="T6">
-        <v>0.06953985427047872</v>
+        <v>0.2253154111406919</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>18.901559</v>
       </c>
       <c r="I7">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J7">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N7">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O7">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P7">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q7">
-        <v>0.09889085651477778</v>
+        <v>0.018315610671</v>
       </c>
       <c r="R7">
-        <v>0.890017708633</v>
+        <v>0.109893664026</v>
       </c>
       <c r="S7">
-        <v>0.009609696179273597</v>
+        <v>0.006005197476474917</v>
       </c>
       <c r="T7">
-        <v>0.01008747028842627</v>
+        <v>0.004035649086336179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H8">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I8">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J8">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N8">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O8">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P8">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q8">
-        <v>1.330586033621834</v>
+        <v>0.04155261942833333</v>
       </c>
       <c r="R8">
-        <v>7.983516201731002</v>
+        <v>0.24931571657</v>
       </c>
       <c r="S8">
-        <v>0.1292993910066881</v>
+        <v>0.0136239893833868</v>
       </c>
       <c r="T8">
-        <v>0.09048525855269166</v>
+        <v>0.009155675649752861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H9">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I9">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J9">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>0.324603</v>
       </c>
       <c r="O9">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P9">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q9">
-        <v>0.1149444650235</v>
+        <v>0.0124358114325</v>
       </c>
       <c r="R9">
-        <v>0.6896667901410001</v>
+        <v>0.07461486859499999</v>
       </c>
       <c r="S9">
-        <v>0.01116970188441954</v>
+        <v>0.004077369014542912</v>
       </c>
       <c r="T9">
-        <v>0.007816690821969225</v>
+        <v>0.00274009815708086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H10">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I10">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J10">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N10">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O10">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P10">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q10">
-        <v>0.01667387554816667</v>
+        <v>0.0003341087775</v>
       </c>
       <c r="R10">
-        <v>0.100043253289</v>
+        <v>0.00133643511</v>
       </c>
       <c r="S10">
-        <v>0.001620280011680924</v>
+        <v>0.0001095453066540628</v>
       </c>
       <c r="T10">
-        <v>0.001133891309489022</v>
+        <v>4.907819917027298E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H11">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I11">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J11">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N11">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O11">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P11">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q11">
-        <v>0.01690490341888889</v>
+        <v>0.003790739909999999</v>
       </c>
       <c r="R11">
-        <v>0.15214413077</v>
+        <v>0.03411665919</v>
       </c>
       <c r="S11">
-        <v>0.001642730091747257</v>
+        <v>0.001242881941007205</v>
       </c>
       <c r="T11">
-        <v>0.001724403215592277</v>
+        <v>0.001252873545615802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H12">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I12">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J12">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.324603</v>
       </c>
       <c r="O12">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P12">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q12">
-        <v>0.00146035283</v>
+        <v>0.001134487485</v>
       </c>
       <c r="R12">
-        <v>0.01314317547</v>
+        <v>0.010210387365</v>
       </c>
       <c r="S12">
-        <v>0.0001419094495227198</v>
+        <v>0.0003719680170315832</v>
       </c>
       <c r="T12">
-        <v>0.0001489648922298781</v>
+        <v>0.0003749582908706347</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,46 +1219,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H13">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I13">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J13">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N13">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O13">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P13">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q13">
-        <v>0.0002118391811111111</v>
+        <v>3.0479895E-05</v>
       </c>
       <c r="R13">
-        <v>0.00190655263</v>
+        <v>0.00018287937</v>
       </c>
       <c r="S13">
-        <v>2.058542357795925E-05</v>
+        <v>9.993540036698483E-06</v>
       </c>
       <c r="T13">
-        <v>2.160888802761611E-05</v>
+        <v>6.715919147764716E-06</v>
       </c>
     </row>
   </sheetData>
